--- a/biology/Botanique/Feofaniya/Feofaniya.xlsx
+++ b/biology/Botanique/Feofaniya/Feofaniya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Feofaniya (en ukrainien : Феофáнія), ou Teofaniia, est un parc et quartier historique situé dans le raïon de Holossiïv, dans le Sud de Kiev, en Ukraine.
  Portail des espaces verts   Portail de la conservation de la nature   Portail de l’Ukraine                   </t>
